--- a/template.xlsx
+++ b/template.xlsx
@@ -3,12 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7495" windowWidth="14400" xWindow="6155" yWindow="760"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7495" windowWidth="14400" xWindow="1920" yWindow="745"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -89,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -102,9 +100,6 @@
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
@@ -387,58 +382,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C7" pane="bottomLeft" sqref="C7"/>
+      <selection activeCell="C6" pane="bottomLeft" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.75"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="13.54296875"/>
-    <col customWidth="1" max="2" min="2" style="2" width="42.1328125"/>
-    <col customWidth="1" max="3" min="3" style="2" width="24.26953125"/>
-    <col customWidth="1" max="4" min="4" style="4" width="16.40625"/>
-    <col customWidth="1" max="5" min="5" style="3" width="17.1328125"/>
-    <col customWidth="1" max="6" min="6" style="2" width="28.54296875"/>
-    <col customWidth="1" max="7" min="7" style="2" width="37.1328125"/>
-    <col customWidth="1" max="8" min="8" style="2" width="10.7265625"/>
+    <col customWidth="1" max="1" min="1" style="2" width="42.1328125"/>
+    <col customWidth="1" max="2" min="2" style="2" width="24.26953125"/>
+    <col customWidth="1" max="3" min="3" style="4" width="16.40625"/>
+    <col customWidth="1" max="4" min="4" style="3" width="17.1328125"/>
+    <col customWidth="1" max="5" min="5" style="2" width="28.54296875"/>
+    <col customWidth="1" max="6" min="6" style="2" width="37.1328125"/>
+    <col customWidth="1" max="7" min="7" style="2" width="10.7265625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>Course</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Author</t>
         </is>
       </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Edition</t>
+        </is>
+      </c>
       <c r="D1" s="6" t="inlineStr">
         <is>
-          <t>Edition</t>
-        </is>
-      </c>
-      <c r="E1" s="7" t="inlineStr">
-        <is>
           <t>ISBN</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>added?</t>
         </is>
@@ -447,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ART</t>
+          <t>History of modern art : painting, sculpture, architecture, photography</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -474,7 +463,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEM</t>
+          <t>Chemistry for engineering students</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -501,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HARDY</t>
+          <t>Tom Hardy : living life to the max</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,131 +518,4 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.75"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Do we have it?</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Availability</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Checked Out</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Older ed</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>On Search</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>E-book</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>E-book older ed</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Long Overdue</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Preservation</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.75"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="36"/>
-  </cols>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
 </file>